--- a/Archivos Excel/GASTO_COMUN_BROTHER.xlsx
+++ b/Archivos Excel/GASTO_COMUN_BROTHER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manee\OneDrive\Escritorio\P_F\PROYECTOS\ANALISIS_GASTO_COMUN\GASTO-COMUN\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1901E4BD-4804-43D1-B7B7-DE5BB7EA9028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F6A72D-95CA-49EE-B2A2-1C276CFA3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{06020335-0276-41A0-82D3-89E75AA21A7E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -44,9 +44,6 @@
     <t>TOTAL A PAGAR</t>
   </si>
   <si>
-    <t>30/07/2022</t>
-  </si>
-  <si>
     <t>26-11-2022</t>
   </si>
   <si>
@@ -63,15 +60,27 @@
   </si>
   <si>
     <t>26-05-2023</t>
+  </si>
+  <si>
+    <t>30-07-2022</t>
+  </si>
+  <si>
+    <t>01-09-2022</t>
+  </si>
+  <si>
+    <t>01-10-2022</t>
+  </si>
+  <si>
+    <t>02-11-2022</t>
+  </si>
+  <si>
+    <t>01-05-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -445,7 +454,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,31 +473,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>75956</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>44570</v>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>70384</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>44571</v>
+      <c r="A4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>68270</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>44603</v>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>74956</v>
@@ -496,7 +505,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>64479</v>
@@ -504,7 +513,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>54223</v>
@@ -512,7 +521,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>58989</v>
@@ -520,7 +529,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>63517</v>
@@ -528,15 +537,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>57228</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>44931</v>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>65887</v>
@@ -544,7 +553,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
         <v>83715</v>

--- a/Archivos Excel/GASTO_COMUN_BROTHER.xlsx
+++ b/Archivos Excel/GASTO_COMUN_BROTHER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manee\OneDrive\Escritorio\P_F\PROYECTOS\ANALISIS_GASTO_COMUN\GASTO-COMUN\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F6A72D-95CA-49EE-B2A2-1C276CFA3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC05C499-C0B4-4BBA-88B5-E58CAC5C7787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{06020335-0276-41A0-82D3-89E75AA21A7E}"/>
   </bookViews>
@@ -112,11 +112,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -472,90 +472,90 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>75956</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>70384</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>68270</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>74956</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>64479</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>54223</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>58989</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>63517</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>57228</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>65887</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>83715</v>
       </c>
     </row>
